--- a/work/TMF/Gap-Assessment-2022-V1.0.xlsx
+++ b/work/TMF/Gap-Assessment-2022-V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A776396-04F0-4FA9-A323-3F51EF19C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62CF561-2C68-4F6B-823A-E356C067E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{3F448B84-10C2-4B81-9393-BDC2AD15A052}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="159">
   <si>
     <t>Control</t>
   </si>
@@ -490,13 +490,37 @@
   </si>
   <si>
     <t>Establishing and maintaining data recovery practices to restore enterprise assets to a pre-incident and trusted state.</t>
+  </si>
+  <si>
+    <t>Falling victom to ransomware can sometimes only be countered with reverting to a backup of a trusted state.</t>
+  </si>
+  <si>
+    <t>Developing backup procedures based on data value, sensitivity, or retention requirements will assist in deciding backup frequency and type (full vs. incremental). On a quarterly basis, backup validation should be done. The operating system, application, and data from the backup should all be verified to be intact and functional.</t>
+  </si>
+  <si>
+    <t>Recover</t>
+  </si>
+  <si>
+    <t>Establish and Maintain a Data Recovery Process</t>
+  </si>
+  <si>
+    <t>Perform Automated Backups</t>
+  </si>
+  <si>
+    <t>Protect Recovery Data</t>
+  </si>
+  <si>
+    <t>Establish and Maintain an Isolated Instance of Recovery Data</t>
+  </si>
+  <si>
+    <t>Test Data Recovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +564,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="AcuminProCond-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1014,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1085,40 +1117,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,13 +1198,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,50 +1252,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57218F47-C12B-4F21-B530-2CAE44319B46}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:E73"/>
+    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26"/>
@@ -1546,7 +1584,8 @@
     <col min="2" max="2" width="47.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.453125" customWidth="1"/>
     <col min="4" max="4" width="36.453125" customWidth="1"/>
-    <col min="5" max="6" width="50.08984375" customWidth="1"/>
+    <col min="5" max="5" width="50.08984375" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
     <col min="7" max="7" width="71" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
@@ -1554,45 +1593,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="45" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="10" t="s">
         <v>49</v>
       </c>
@@ -1602,24 +1641,24 @@
       <c r="J2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="67"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A3" s="61">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="71" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="50" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1636,11 +1675,11 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="14.5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="34"/>
       <c r="G4" s="4" t="s">
         <v>27</v>
@@ -1656,11 +1695,11 @@
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="14.5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="34"/>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -1676,11 +1715,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="14.5">
-      <c r="A6" s="61"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="34"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
@@ -1696,11 +1735,11 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="35"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="35"/>
       <c r="G7" s="5" t="s">
         <v>33</v>
@@ -1716,19 +1755,19 @@
       <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="58">
         <v>2</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="33" t="s">
         <v>40</v>
       </c>
@@ -1746,11 +1785,11 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="14.5">
-      <c r="A9" s="61"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="34"/>
       <c r="G9" s="7" t="s">
         <v>42</v>
@@ -1766,11 +1805,11 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="14.5">
-      <c r="A10" s="61"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="34"/>
       <c r="G10" s="7" t="s">
         <v>43</v>
@@ -1786,11 +1825,11 @@
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="14.5">
-      <c r="A11" s="61"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="34"/>
       <c r="G11" s="4" t="s">
         <v>44</v>
@@ -1806,11 +1845,11 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="14.5">
-      <c r="A12" s="61"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="34"/>
       <c r="G12" s="7" t="s">
         <v>45</v>
@@ -1826,11 +1865,11 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="14.5">
-      <c r="A13" s="61"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="34"/>
       <c r="G13" s="7" t="s">
         <v>47</v>
@@ -1846,11 +1885,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="35"/>
       <c r="G14" s="5" t="s">
         <v>48</v>
@@ -1866,19 +1905,19 @@
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="14.5">
-      <c r="A15" s="61">
+      <c r="A15" s="52">
         <v>3</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="33" t="s">
         <v>54</v>
       </c>
@@ -1896,11 +1935,11 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="14.5">
-      <c r="A16" s="61"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="34"/>
       <c r="G16" s="7" t="s">
         <v>56</v>
@@ -1916,11 +1955,11 @@
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" ht="14.5">
-      <c r="A17" s="61"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="34"/>
       <c r="G17" s="7" t="s">
         <v>57</v>
@@ -1936,11 +1975,11 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="14.5">
-      <c r="A18" s="61"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="34"/>
       <c r="G18" s="4" t="s">
         <v>58</v>
@@ -1956,11 +1995,11 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="14.5">
-      <c r="A19" s="61"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="34"/>
       <c r="G19" s="4" t="s">
         <v>59</v>
@@ -1976,11 +2015,11 @@
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" ht="14.5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="34"/>
       <c r="G20" s="4" t="s">
         <v>60</v>
@@ -1996,11 +2035,11 @@
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="14.5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="34"/>
       <c r="G21" s="4" t="s">
         <v>61</v>
@@ -2016,11 +2055,11 @@
       <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" ht="14.5">
-      <c r="A22" s="61"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="34"/>
       <c r="G22" s="4" t="s">
         <v>62</v>
@@ -2036,11 +2075,11 @@
       <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" ht="14.5">
-      <c r="A23" s="61"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="34"/>
       <c r="G23" s="4" t="s">
         <v>63</v>
@@ -2056,11 +2095,11 @@
       <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" ht="14.5">
-      <c r="A24" s="61"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="34"/>
       <c r="G24" s="4" t="s">
         <v>64</v>
@@ -2076,11 +2115,11 @@
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" ht="14.5">
-      <c r="A25" s="61"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="34"/>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -2096,11 +2135,11 @@
       <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" ht="14.5">
-      <c r="A26" s="61"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="34"/>
       <c r="G26" s="4" t="s">
         <v>66</v>
@@ -2116,11 +2155,11 @@
       <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12" ht="14.5">
-      <c r="A27" s="61"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="34"/>
       <c r="G27" s="4" t="s">
         <v>67</v>
@@ -2136,11 +2175,11 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="35"/>
       <c r="G28" s="5" t="s">
         <v>68</v>
@@ -2156,19 +2195,19 @@
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="14.5">
-      <c r="A29" s="61">
+      <c r="A29" s="52">
         <v>4</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="57" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="33" t="s">
         <v>71</v>
       </c>
@@ -2186,11 +2225,11 @@
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="14.5">
-      <c r="A30" s="61"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="34"/>
       <c r="G30" s="7" t="s">
         <v>73</v>
@@ -2206,11 +2245,11 @@
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" ht="14.5">
-      <c r="A31" s="61"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="34"/>
       <c r="G31" s="7" t="s">
         <v>74</v>
@@ -2226,11 +2265,11 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12" ht="14.5">
-      <c r="A32" s="61"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="34"/>
       <c r="G32" s="7" t="s">
         <v>75</v>
@@ -2246,11 +2285,11 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12" ht="14.5">
-      <c r="A33" s="61"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="34"/>
       <c r="G33" s="4" t="s">
         <v>76</v>
@@ -2266,11 +2305,11 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12" ht="14.5">
-      <c r="A34" s="61"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="34"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="34"/>
       <c r="G34" s="4" t="s">
         <v>77</v>
@@ -2286,11 +2325,11 @@
       <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12" ht="14.5">
-      <c r="A35" s="61"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="34"/>
       <c r="G35" s="4" t="s">
         <v>78</v>
@@ -2306,11 +2345,11 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12" ht="14.5">
-      <c r="A36" s="61"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="34"/>
       <c r="G36" s="4" t="s">
         <v>79</v>
@@ -2326,11 +2365,11 @@
       <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12" ht="14.5">
-      <c r="A37" s="61"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="34"/>
       <c r="G37" s="4" t="s">
         <v>80</v>
@@ -2346,11 +2385,11 @@
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12" ht="14.5">
-      <c r="A38" s="61"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="34"/>
       <c r="G38" s="4" t="s">
         <v>81</v>
@@ -2366,11 +2405,11 @@
       <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:12" ht="14.5">
-      <c r="A39" s="61"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="34"/>
       <c r="G39" s="4" t="s">
         <v>82</v>
@@ -2386,11 +2425,11 @@
       <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="35"/>
       <c r="G40" s="5" t="s">
         <v>83</v>
@@ -2406,10 +2445,10 @@
       <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="14.5">
-      <c r="A41" s="60">
+      <c r="A41" s="51">
         <v>5</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -2436,8 +2475,8 @@
       <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="34"/>
       <c r="D42" s="38"/>
       <c r="E42" s="39"/>
@@ -2456,8 +2495,8 @@
       <c r="L42" s="28"/>
     </row>
     <row r="43" spans="1:12" ht="14.5">
-      <c r="A43" s="61"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="34"/>
       <c r="D43" s="38"/>
       <c r="E43" s="39"/>
@@ -2476,8 +2515,8 @@
       <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1">
-      <c r="A44" s="61"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="34"/>
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
@@ -2496,8 +2535,8 @@
       <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12" ht="14.5">
-      <c r="A45" s="61"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="34"/>
       <c r="D45" s="38"/>
       <c r="E45" s="39"/>
@@ -2516,8 +2555,8 @@
       <c r="L45" s="28"/>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="35"/>
       <c r="D46" s="40"/>
       <c r="E46" s="41"/>
@@ -2536,10 +2575,10 @@
       <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" ht="15" thickBot="1">
-      <c r="A47" s="60">
+      <c r="A47" s="51">
         <v>6</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="33" t="s">
@@ -2566,8 +2605,8 @@
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="34"/>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
@@ -2586,8 +2625,8 @@
       <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="34"/>
       <c r="D49" s="38"/>
       <c r="E49" s="39"/>
@@ -2606,8 +2645,8 @@
       <c r="L49" s="28"/>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="34"/>
       <c r="D50" s="38"/>
       <c r="E50" s="39"/>
@@ -2626,8 +2665,8 @@
       <c r="L50" s="28"/>
     </row>
     <row r="51" spans="1:12" ht="15" thickBot="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="34"/>
       <c r="D51" s="38"/>
       <c r="E51" s="39"/>
@@ -2646,8 +2685,8 @@
       <c r="L51" s="28"/>
     </row>
     <row r="52" spans="1:12" ht="14.5">
-      <c r="A52" s="61"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="34"/>
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
@@ -2666,8 +2705,8 @@
       <c r="L52" s="28"/>
     </row>
     <row r="53" spans="1:12" ht="15" thickBot="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="34"/>
       <c r="D53" s="38"/>
       <c r="E53" s="39"/>
@@ -2686,8 +2725,8 @@
       <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1">
-      <c r="A54" s="62"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="35"/>
       <c r="D54" s="40"/>
       <c r="E54" s="41"/>
@@ -2706,10 +2745,10 @@
       <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="60">
+      <c r="A55" s="51">
         <v>7</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="33" t="s">
@@ -2736,8 +2775,8 @@
       <c r="L55" s="27"/>
     </row>
     <row r="56" spans="1:12" ht="14.5">
-      <c r="A56" s="61"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="34"/>
       <c r="D56" s="38"/>
       <c r="E56" s="39"/>
@@ -2756,8 +2795,8 @@
       <c r="L56" s="28"/>
     </row>
     <row r="57" spans="1:12" ht="15" thickBot="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="34"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
@@ -2776,8 +2815,8 @@
       <c r="L57" s="28"/>
     </row>
     <row r="58" spans="1:12" ht="15" thickBot="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="34"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
@@ -2796,8 +2835,8 @@
       <c r="L58" s="28"/>
     </row>
     <row r="59" spans="1:12" ht="14.5">
-      <c r="A59" s="61"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="34"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
@@ -2816,8 +2855,8 @@
       <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" ht="14.5">
-      <c r="A60" s="61"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="34"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
@@ -2836,8 +2875,8 @@
       <c r="L60" s="28"/>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1">
-      <c r="A61" s="62"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="35"/>
       <c r="D61" s="40"/>
       <c r="E61" s="41"/>
@@ -2856,10 +2895,10 @@
       <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1">
-      <c r="A62" s="60">
+      <c r="A62" s="51">
         <v>8</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="33" t="s">
@@ -2886,8 +2925,8 @@
       <c r="L62" s="27"/>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="34"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39"/>
@@ -2906,8 +2945,8 @@
       <c r="L63" s="28"/>
     </row>
     <row r="64" spans="1:12" ht="15" thickBot="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="34"/>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
@@ -2926,8 +2965,8 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="1:12" ht="15" thickBot="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="34"/>
       <c r="D65" s="38"/>
       <c r="E65" s="39"/>
@@ -2946,8 +2985,8 @@
       <c r="L65" s="28"/>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="34"/>
       <c r="D66" s="38"/>
       <c r="E66" s="39"/>
@@ -2966,8 +3005,8 @@
       <c r="L66" s="28"/>
     </row>
     <row r="67" spans="1:12" ht="15" thickBot="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="34"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39"/>
@@ -2986,8 +3025,8 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="1:12" ht="15" thickBot="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="34"/>
       <c r="D68" s="38"/>
       <c r="E68" s="39"/>
@@ -3006,8 +3045,8 @@
       <c r="L68" s="28"/>
     </row>
     <row r="69" spans="1:12" ht="15" thickBot="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="34"/>
       <c r="D69" s="38"/>
       <c r="E69" s="39"/>
@@ -3026,8 +3065,8 @@
       <c r="L69" s="28"/>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="34"/>
       <c r="D70" s="38"/>
       <c r="E70" s="39"/>
@@ -3046,8 +3085,8 @@
       <c r="L70" s="28"/>
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="34"/>
       <c r="D71" s="38"/>
       <c r="E71" s="39"/>
@@ -3066,8 +3105,8 @@
       <c r="L71" s="28"/>
     </row>
     <row r="72" spans="1:12" ht="15" thickBot="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="34"/>
       <c r="D72" s="38"/>
       <c r="E72" s="39"/>
@@ -3086,8 +3125,8 @@
       <c r="L72" s="28"/>
     </row>
     <row r="73" spans="1:12" ht="15" thickBot="1">
-      <c r="A73" s="62"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="35"/>
       <c r="D73" s="40"/>
       <c r="E73" s="41"/>
@@ -3106,10 +3145,10 @@
       <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" ht="15" thickBot="1">
-      <c r="A74" s="60">
+      <c r="A74" s="51">
         <v>9</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="33" t="s">
@@ -3136,8 +3175,8 @@
       <c r="L74" s="27"/>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1">
-      <c r="A75" s="61"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="34"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
@@ -3156,8 +3195,8 @@
       <c r="L75" s="28"/>
     </row>
     <row r="76" spans="1:12" ht="15" thickBot="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="34"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
@@ -3176,8 +3215,8 @@
       <c r="L76" s="28"/>
     </row>
     <row r="77" spans="1:12" ht="15" thickBot="1">
-      <c r="A77" s="61"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="34"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
@@ -3196,8 +3235,8 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="1:12" ht="15" thickBot="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="34"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
@@ -3216,8 +3255,8 @@
       <c r="L78" s="28"/>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1">
-      <c r="A79" s="61"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="34"/>
       <c r="D79" s="38"/>
       <c r="E79" s="39"/>
@@ -3236,8 +3275,8 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="1:12" ht="15" thickBot="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="35"/>
       <c r="D80" s="40"/>
       <c r="E80" s="41"/>
@@ -3256,10 +3295,10 @@
       <c r="L80" s="29"/>
     </row>
     <row r="81" spans="1:12" ht="15" thickBot="1">
-      <c r="A81" s="60">
+      <c r="A81" s="51">
         <v>10</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="33" t="s">
@@ -3286,8 +3325,8 @@
       <c r="L81" s="27"/>
     </row>
     <row r="82" spans="1:12" ht="15" thickBot="1">
-      <c r="A82" s="61"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="34"/>
       <c r="D82" s="38"/>
       <c r="E82" s="39"/>
@@ -3306,8 +3345,8 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="34"/>
       <c r="D83" s="38"/>
       <c r="E83" s="39"/>
@@ -3326,8 +3365,8 @@
       <c r="L83" s="28"/>
     </row>
     <row r="84" spans="1:12" ht="15" thickBot="1">
-      <c r="A84" s="61"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="34"/>
       <c r="D84" s="38"/>
       <c r="E84" s="39"/>
@@ -3346,8 +3385,8 @@
       <c r="L84" s="28"/>
     </row>
     <row r="85" spans="1:12" ht="15" thickBot="1">
-      <c r="A85" s="61"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="34"/>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
@@ -3366,8 +3405,8 @@
       <c r="L85" s="28"/>
     </row>
     <row r="86" spans="1:12" ht="15" thickBot="1">
-      <c r="A86" s="61"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="34"/>
       <c r="D86" s="38"/>
       <c r="E86" s="39"/>
@@ -3386,8 +3425,8 @@
       <c r="L86" s="28"/>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1">
-      <c r="A87" s="62"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="35"/>
       <c r="D87" s="40"/>
       <c r="E87" s="41"/>
@@ -3405,90 +3444,124 @@
       </c>
       <c r="L87" s="29"/>
     </row>
-    <row r="88" spans="1:12" ht="14.5">
-      <c r="A88" s="60">
+    <row r="88" spans="1:12" ht="15" thickBot="1">
+      <c r="A88" s="51">
         <v>11</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D88" s="36"/>
+      <c r="D88" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="E88" s="37"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="13"/>
+      <c r="F88" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G88" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="18"/>
+      <c r="K88" s="75" t="s">
+        <v>153</v>
+      </c>
       <c r="L88" s="27"/>
     </row>
     <row r="89" spans="1:12" ht="14.5">
-      <c r="A89" s="61"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="34"/>
       <c r="D89" s="38"/>
       <c r="E89" s="39"/>
       <c r="F89" s="34"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="11"/>
+      <c r="G89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="16"/>
+      <c r="K89" s="75" t="s">
+        <v>153</v>
+      </c>
       <c r="L89" s="28"/>
     </row>
-    <row r="90" spans="1:12" ht="14.5">
-      <c r="A90" s="61"/>
-      <c r="B90" s="43"/>
+    <row r="90" spans="1:12" ht="15" thickBot="1">
+      <c r="A90" s="52"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="34"/>
       <c r="D90" s="38"/>
       <c r="E90" s="39"/>
       <c r="F90" s="34"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="11"/>
+      <c r="G90" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="16"/>
+      <c r="K90" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L90" s="28"/>
     </row>
-    <row r="91" spans="1:12" ht="14.5">
-      <c r="A91" s="61"/>
-      <c r="B91" s="43"/>
+    <row r="91" spans="1:12" ht="15" thickBot="1">
+      <c r="A91" s="52"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="34"/>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
       <c r="F91" s="34"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="11"/>
+      <c r="G91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="16"/>
+      <c r="K91" s="75" t="s">
+        <v>153</v>
+      </c>
       <c r="L91" s="28"/>
     </row>
     <row r="92" spans="1:12" ht="15" thickBot="1">
-      <c r="A92" s="62"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="35"/>
       <c r="D92" s="40"/>
       <c r="E92" s="41"/>
       <c r="F92" s="35"/>
-      <c r="G92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="H92" s="12"/>
-      <c r="I92" s="17"/>
+      <c r="I92" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="J92" s="12"/>
-      <c r="K92" s="17"/>
+      <c r="K92" s="75" t="s">
+        <v>153</v>
+      </c>
       <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12" ht="14.5">
-      <c r="A93" s="60">
+      <c r="A93" s="51">
         <v>12</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="72"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="36"/>
       <c r="E93" s="37"/>
       <c r="F93" s="33"/>
@@ -3500,9 +3573,9 @@
       <c r="L93" s="27"/>
     </row>
     <row r="94" spans="1:12" ht="14.5">
-      <c r="A94" s="61"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="73"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="38"/>
       <c r="E94" s="39"/>
       <c r="F94" s="34"/>
@@ -3514,9 +3587,9 @@
       <c r="L94" s="28"/>
     </row>
     <row r="95" spans="1:12" ht="14.5">
-      <c r="A95" s="61"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="73"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="38"/>
       <c r="E95" s="39"/>
       <c r="F95" s="34"/>
@@ -3528,9 +3601,9 @@
       <c r="L95" s="28"/>
     </row>
     <row r="96" spans="1:12" ht="14.5">
-      <c r="A96" s="61"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="73"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="38"/>
       <c r="E96" s="39"/>
       <c r="F96" s="34"/>
@@ -3542,9 +3615,9 @@
       <c r="L96" s="28"/>
     </row>
     <row r="97" spans="1:12" ht="14.5">
-      <c r="A97" s="61"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="73"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="38"/>
       <c r="E97" s="39"/>
       <c r="F97" s="34"/>
@@ -3556,9 +3629,9 @@
       <c r="L97" s="28"/>
     </row>
     <row r="98" spans="1:12" ht="14.5">
-      <c r="A98" s="61"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="73"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="38"/>
       <c r="E98" s="39"/>
       <c r="F98" s="34"/>
@@ -3570,9 +3643,9 @@
       <c r="L98" s="28"/>
     </row>
     <row r="99" spans="1:12" ht="14.5">
-      <c r="A99" s="61"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="73"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="38"/>
       <c r="E99" s="39"/>
       <c r="F99" s="34"/>
@@ -3584,9 +3657,9 @@
       <c r="L99" s="28"/>
     </row>
     <row r="100" spans="1:12" ht="15" thickBot="1">
-      <c r="A100" s="62"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="74"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="40"/>
       <c r="E100" s="41"/>
       <c r="F100" s="35"/>
@@ -3598,16 +3671,16 @@
       <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" ht="14.5">
-      <c r="A101" s="60">
+      <c r="A101" s="51">
         <v>13</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="72"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="36"/>
       <c r="E101" s="37"/>
-      <c r="F101" s="72"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="8"/>
       <c r="H101" s="13"/>
       <c r="I101" s="18"/>
@@ -3616,12 +3689,12 @@
       <c r="L101" s="27"/>
     </row>
     <row r="102" spans="1:12" ht="14.5">
-      <c r="A102" s="61"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="73"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="38"/>
       <c r="E102" s="39"/>
-      <c r="F102" s="73"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="4"/>
       <c r="H102" s="11"/>
       <c r="I102" s="16"/>
@@ -3630,12 +3703,12 @@
       <c r="L102" s="28"/>
     </row>
     <row r="103" spans="1:12" ht="14.5">
-      <c r="A103" s="61"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="73"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="38"/>
       <c r="E103" s="39"/>
-      <c r="F103" s="73"/>
+      <c r="F103" s="31"/>
       <c r="G103" s="4"/>
       <c r="H103" s="11"/>
       <c r="I103" s="16"/>
@@ -3644,12 +3717,12 @@
       <c r="L103" s="28"/>
     </row>
     <row r="104" spans="1:12" ht="14.5">
-      <c r="A104" s="61"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="73"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="38"/>
       <c r="E104" s="39"/>
-      <c r="F104" s="73"/>
+      <c r="F104" s="31"/>
       <c r="G104" s="4"/>
       <c r="H104" s="11"/>
       <c r="I104" s="16"/>
@@ -3658,12 +3731,12 @@
       <c r="L104" s="28"/>
     </row>
     <row r="105" spans="1:12" ht="14.5">
-      <c r="A105" s="61"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="73"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="38"/>
       <c r="E105" s="39"/>
-      <c r="F105" s="73"/>
+      <c r="F105" s="31"/>
       <c r="G105" s="4"/>
       <c r="H105" s="11"/>
       <c r="I105" s="16"/>
@@ -3672,12 +3745,12 @@
       <c r="L105" s="28"/>
     </row>
     <row r="106" spans="1:12" ht="14.5">
-      <c r="A106" s="61"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="73"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="38"/>
       <c r="E106" s="39"/>
-      <c r="F106" s="73"/>
+      <c r="F106" s="31"/>
       <c r="G106" s="4"/>
       <c r="H106" s="11"/>
       <c r="I106" s="16"/>
@@ -3686,12 +3759,12 @@
       <c r="L106" s="28"/>
     </row>
     <row r="107" spans="1:12" ht="14.5">
-      <c r="A107" s="61"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="73"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="38"/>
       <c r="E107" s="39"/>
-      <c r="F107" s="73"/>
+      <c r="F107" s="31"/>
       <c r="G107" s="4"/>
       <c r="H107" s="11"/>
       <c r="I107" s="16"/>
@@ -3700,12 +3773,12 @@
       <c r="L107" s="28"/>
     </row>
     <row r="108" spans="1:12" ht="14.5">
-      <c r="A108" s="61"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="73"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="38"/>
       <c r="E108" s="39"/>
-      <c r="F108" s="73"/>
+      <c r="F108" s="31"/>
       <c r="G108" s="4"/>
       <c r="H108" s="11"/>
       <c r="I108" s="16"/>
@@ -3714,12 +3787,12 @@
       <c r="L108" s="28"/>
     </row>
     <row r="109" spans="1:12" ht="14.5">
-      <c r="A109" s="61"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="73"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="38"/>
       <c r="E109" s="39"/>
-      <c r="F109" s="73"/>
+      <c r="F109" s="31"/>
       <c r="G109" s="4"/>
       <c r="H109" s="11"/>
       <c r="I109" s="16"/>
@@ -3728,12 +3801,12 @@
       <c r="L109" s="28"/>
     </row>
     <row r="110" spans="1:12" ht="14.5">
-      <c r="A110" s="61"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="73"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="38"/>
       <c r="E110" s="39"/>
-      <c r="F110" s="73"/>
+      <c r="F110" s="31"/>
       <c r="G110" s="4"/>
       <c r="H110" s="11"/>
       <c r="I110" s="16"/>
@@ -3742,12 +3815,12 @@
       <c r="L110" s="28"/>
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1">
-      <c r="A111" s="62"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="74"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="40"/>
       <c r="E111" s="41"/>
-      <c r="F111" s="74"/>
+      <c r="F111" s="32"/>
       <c r="G111" s="5"/>
       <c r="H111" s="12"/>
       <c r="I111" s="17"/>
@@ -3756,16 +3829,16 @@
       <c r="L111" s="29"/>
     </row>
     <row r="112" spans="1:12" ht="14.5">
-      <c r="A112" s="60">
+      <c r="A112" s="51">
         <v>14</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="72"/>
+      <c r="C112" s="30"/>
       <c r="D112" s="36"/>
       <c r="E112" s="37"/>
-      <c r="F112" s="72"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="8"/>
       <c r="H112" s="13"/>
       <c r="I112" s="18"/>
@@ -3774,12 +3847,12 @@
       <c r="L112" s="27"/>
     </row>
     <row r="113" spans="1:12" ht="14.5">
-      <c r="A113" s="61"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="73"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="38"/>
       <c r="E113" s="39"/>
-      <c r="F113" s="73"/>
+      <c r="F113" s="31"/>
       <c r="G113" s="4"/>
       <c r="H113" s="11"/>
       <c r="I113" s="16"/>
@@ -3788,12 +3861,12 @@
       <c r="L113" s="28"/>
     </row>
     <row r="114" spans="1:12" ht="14.5">
-      <c r="A114" s="61"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="73"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="38"/>
       <c r="E114" s="39"/>
-      <c r="F114" s="73"/>
+      <c r="F114" s="31"/>
       <c r="G114" s="4"/>
       <c r="H114" s="11"/>
       <c r="I114" s="16"/>
@@ -3802,12 +3875,12 @@
       <c r="L114" s="28"/>
     </row>
     <row r="115" spans="1:12" ht="14.5">
-      <c r="A115" s="61"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="73"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
-      <c r="F115" s="73"/>
+      <c r="F115" s="31"/>
       <c r="G115" s="4"/>
       <c r="H115" s="11"/>
       <c r="I115" s="16"/>
@@ -3816,12 +3889,12 @@
       <c r="L115" s="28"/>
     </row>
     <row r="116" spans="1:12" ht="14.5">
-      <c r="A116" s="61"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="73"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="38"/>
       <c r="E116" s="39"/>
-      <c r="F116" s="73"/>
+      <c r="F116" s="31"/>
       <c r="G116" s="4"/>
       <c r="H116" s="11"/>
       <c r="I116" s="16"/>
@@ -3830,12 +3903,12 @@
       <c r="L116" s="28"/>
     </row>
     <row r="117" spans="1:12" ht="14.5">
-      <c r="A117" s="61"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="73"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="38"/>
       <c r="E117" s="39"/>
-      <c r="F117" s="73"/>
+      <c r="F117" s="31"/>
       <c r="G117" s="4"/>
       <c r="H117" s="11"/>
       <c r="I117" s="16"/>
@@ -3844,12 +3917,12 @@
       <c r="L117" s="28"/>
     </row>
     <row r="118" spans="1:12" ht="14.5">
-      <c r="A118" s="61"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="73"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
-      <c r="F118" s="73"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="4"/>
       <c r="H118" s="11"/>
       <c r="I118" s="16"/>
@@ -3858,12 +3931,12 @@
       <c r="L118" s="28"/>
     </row>
     <row r="119" spans="1:12" ht="14.5">
-      <c r="A119" s="61"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="73"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="38"/>
       <c r="E119" s="39"/>
-      <c r="F119" s="73"/>
+      <c r="F119" s="31"/>
       <c r="G119" s="4"/>
       <c r="H119" s="11"/>
       <c r="I119" s="16"/>
@@ -3872,12 +3945,12 @@
       <c r="L119" s="28"/>
     </row>
     <row r="120" spans="1:12" ht="15" thickBot="1">
-      <c r="A120" s="62"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="74"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="40"/>
       <c r="E120" s="41"/>
-      <c r="F120" s="74"/>
+      <c r="F120" s="32"/>
       <c r="G120" s="5"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17"/>
@@ -3886,16 +3959,16 @@
       <c r="L120" s="29"/>
     </row>
     <row r="121" spans="1:12" ht="14.5">
-      <c r="A121" s="60">
+      <c r="A121" s="51">
         <v>15</v>
       </c>
-      <c r="B121" s="42" t="s">
+      <c r="B121" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="72"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="36"/>
       <c r="E121" s="37"/>
-      <c r="F121" s="72"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="8"/>
       <c r="H121" s="13"/>
       <c r="I121" s="18"/>
@@ -3904,12 +3977,12 @@
       <c r="L121" s="27"/>
     </row>
     <row r="122" spans="1:12" ht="14.5">
-      <c r="A122" s="61"/>
-      <c r="B122" s="43"/>
-      <c r="C122" s="73"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="38"/>
       <c r="E122" s="39"/>
-      <c r="F122" s="73"/>
+      <c r="F122" s="31"/>
       <c r="G122" s="4"/>
       <c r="H122" s="11"/>
       <c r="I122" s="16"/>
@@ -3918,12 +3991,12 @@
       <c r="L122" s="28"/>
     </row>
     <row r="123" spans="1:12" ht="14.5">
-      <c r="A123" s="61"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="73"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="38"/>
       <c r="E123" s="39"/>
-      <c r="F123" s="73"/>
+      <c r="F123" s="31"/>
       <c r="G123" s="4"/>
       <c r="H123" s="11"/>
       <c r="I123" s="16"/>
@@ -3932,12 +4005,12 @@
       <c r="L123" s="28"/>
     </row>
     <row r="124" spans="1:12" ht="14.5">
-      <c r="A124" s="61"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="73"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="38"/>
       <c r="E124" s="39"/>
-      <c r="F124" s="73"/>
+      <c r="F124" s="31"/>
       <c r="G124" s="4"/>
       <c r="H124" s="11"/>
       <c r="I124" s="16"/>
@@ -3946,12 +4019,12 @@
       <c r="L124" s="28"/>
     </row>
     <row r="125" spans="1:12" ht="14.5">
-      <c r="A125" s="61"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="73"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="38"/>
       <c r="E125" s="39"/>
-      <c r="F125" s="73"/>
+      <c r="F125" s="31"/>
       <c r="G125" s="4"/>
       <c r="H125" s="11"/>
       <c r="I125" s="16"/>
@@ -3960,12 +4033,12 @@
       <c r="L125" s="28"/>
     </row>
     <row r="126" spans="1:12" ht="14.5">
-      <c r="A126" s="61"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="73"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="31"/>
       <c r="D126" s="38"/>
       <c r="E126" s="39"/>
-      <c r="F126" s="73"/>
+      <c r="F126" s="31"/>
       <c r="G126" s="4"/>
       <c r="H126" s="11"/>
       <c r="I126" s="16"/>
@@ -3974,12 +4047,12 @@
       <c r="L126" s="28"/>
     </row>
     <row r="127" spans="1:12" ht="15" thickBot="1">
-      <c r="A127" s="62"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="74"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
-      <c r="F127" s="74"/>
+      <c r="F127" s="32"/>
       <c r="G127" s="5"/>
       <c r="H127" s="12"/>
       <c r="I127" s="17"/>
@@ -3988,16 +4061,16 @@
       <c r="L127" s="29"/>
     </row>
     <row r="128" spans="1:12" ht="14.5">
-      <c r="A128" s="60">
+      <c r="A128" s="51">
         <v>16</v>
       </c>
-      <c r="B128" s="42" t="s">
+      <c r="B128" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="72"/>
+      <c r="C128" s="30"/>
       <c r="D128" s="36"/>
       <c r="E128" s="37"/>
-      <c r="F128" s="72"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="8"/>
       <c r="H128" s="13"/>
       <c r="I128" s="18"/>
@@ -4006,12 +4079,12 @@
       <c r="L128" s="27"/>
     </row>
     <row r="129" spans="1:12" ht="14.5">
-      <c r="A129" s="61"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="73"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="31"/>
       <c r="D129" s="38"/>
       <c r="E129" s="39"/>
-      <c r="F129" s="73"/>
+      <c r="F129" s="31"/>
       <c r="G129" s="4"/>
       <c r="H129" s="11"/>
       <c r="I129" s="16"/>
@@ -4020,12 +4093,12 @@
       <c r="L129" s="28"/>
     </row>
     <row r="130" spans="1:12" ht="14.5">
-      <c r="A130" s="61"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="73"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="38"/>
       <c r="E130" s="39"/>
-      <c r="F130" s="73"/>
+      <c r="F130" s="31"/>
       <c r="G130" s="4"/>
       <c r="H130" s="11"/>
       <c r="I130" s="16"/>
@@ -4034,12 +4107,12 @@
       <c r="L130" s="28"/>
     </row>
     <row r="131" spans="1:12" ht="14.5">
-      <c r="A131" s="61"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="73"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="38"/>
       <c r="E131" s="39"/>
-      <c r="F131" s="73"/>
+      <c r="F131" s="31"/>
       <c r="G131" s="4"/>
       <c r="H131" s="11"/>
       <c r="I131" s="16"/>
@@ -4048,12 +4121,12 @@
       <c r="L131" s="28"/>
     </row>
     <row r="132" spans="1:12" ht="14.5">
-      <c r="A132" s="61"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="73"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="38"/>
       <c r="E132" s="39"/>
-      <c r="F132" s="73"/>
+      <c r="F132" s="31"/>
       <c r="G132" s="4"/>
       <c r="H132" s="11"/>
       <c r="I132" s="16"/>
@@ -4062,12 +4135,12 @@
       <c r="L132" s="28"/>
     </row>
     <row r="133" spans="1:12" ht="14.5">
-      <c r="A133" s="61"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="73"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="38"/>
       <c r="E133" s="39"/>
-      <c r="F133" s="73"/>
+      <c r="F133" s="31"/>
       <c r="G133" s="4"/>
       <c r="H133" s="11"/>
       <c r="I133" s="16"/>
@@ -4076,12 +4149,12 @@
       <c r="L133" s="28"/>
     </row>
     <row r="134" spans="1:12" ht="14.5">
-      <c r="A134" s="61"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="73"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="38"/>
       <c r="E134" s="39"/>
-      <c r="F134" s="73"/>
+      <c r="F134" s="31"/>
       <c r="G134" s="4"/>
       <c r="H134" s="11"/>
       <c r="I134" s="16"/>
@@ -4090,12 +4163,12 @@
       <c r="L134" s="28"/>
     </row>
     <row r="135" spans="1:12" ht="14.5">
-      <c r="A135" s="61"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="73"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="31"/>
       <c r="D135" s="38"/>
       <c r="E135" s="39"/>
-      <c r="F135" s="73"/>
+      <c r="F135" s="31"/>
       <c r="G135" s="4"/>
       <c r="H135" s="11"/>
       <c r="I135" s="16"/>
@@ -4104,12 +4177,12 @@
       <c r="L135" s="28"/>
     </row>
     <row r="136" spans="1:12" ht="14.5">
-      <c r="A136" s="61"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="73"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="38"/>
       <c r="E136" s="39"/>
-      <c r="F136" s="73"/>
+      <c r="F136" s="31"/>
       <c r="G136" s="4"/>
       <c r="H136" s="11"/>
       <c r="I136" s="16"/>
@@ -4118,12 +4191,12 @@
       <c r="L136" s="28"/>
     </row>
     <row r="137" spans="1:12" ht="14.5">
-      <c r="A137" s="61"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="73"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="38"/>
       <c r="E137" s="39"/>
-      <c r="F137" s="73"/>
+      <c r="F137" s="31"/>
       <c r="G137" s="4"/>
       <c r="H137" s="11"/>
       <c r="I137" s="16"/>
@@ -4132,12 +4205,12 @@
       <c r="L137" s="28"/>
     </row>
     <row r="138" spans="1:12" ht="14.5">
-      <c r="A138" s="61"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="73"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="38"/>
       <c r="E138" s="39"/>
-      <c r="F138" s="73"/>
+      <c r="F138" s="31"/>
       <c r="G138" s="4"/>
       <c r="H138" s="11"/>
       <c r="I138" s="16"/>
@@ -4146,12 +4219,12 @@
       <c r="L138" s="28"/>
     </row>
     <row r="139" spans="1:12" ht="14.5">
-      <c r="A139" s="61"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="73"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="31"/>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
-      <c r="F139" s="73"/>
+      <c r="F139" s="31"/>
       <c r="G139" s="4"/>
       <c r="H139" s="11"/>
       <c r="I139" s="16"/>
@@ -4160,12 +4233,12 @@
       <c r="L139" s="28"/>
     </row>
     <row r="140" spans="1:12" ht="14.5">
-      <c r="A140" s="61"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="73"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="38"/>
       <c r="E140" s="39"/>
-      <c r="F140" s="73"/>
+      <c r="F140" s="31"/>
       <c r="G140" s="4"/>
       <c r="H140" s="11"/>
       <c r="I140" s="16"/>
@@ -4174,12 +4247,12 @@
       <c r="L140" s="28"/>
     </row>
     <row r="141" spans="1:12" ht="15" thickBot="1">
-      <c r="A141" s="62"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="74"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="32"/>
       <c r="D141" s="40"/>
       <c r="E141" s="41"/>
-      <c r="F141" s="74"/>
+      <c r="F141" s="32"/>
       <c r="G141" s="5"/>
       <c r="H141" s="12"/>
       <c r="I141" s="17"/>
@@ -4188,16 +4261,16 @@
       <c r="L141" s="29"/>
     </row>
     <row r="142" spans="1:12" ht="14.5">
-      <c r="A142" s="60">
+      <c r="A142" s="51">
         <v>17</v>
       </c>
-      <c r="B142" s="42" t="s">
+      <c r="B142" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="72"/>
+      <c r="C142" s="30"/>
       <c r="D142" s="36"/>
       <c r="E142" s="37"/>
-      <c r="F142" s="72"/>
+      <c r="F142" s="30"/>
       <c r="G142" s="8"/>
       <c r="H142" s="13"/>
       <c r="I142" s="18"/>
@@ -4206,12 +4279,12 @@
       <c r="L142" s="27"/>
     </row>
     <row r="143" spans="1:12" ht="14.5">
-      <c r="A143" s="61"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="73"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="38"/>
       <c r="E143" s="39"/>
-      <c r="F143" s="73"/>
+      <c r="F143" s="31"/>
       <c r="G143" s="4"/>
       <c r="H143" s="11"/>
       <c r="I143" s="16"/>
@@ -4220,12 +4293,12 @@
       <c r="L143" s="28"/>
     </row>
     <row r="144" spans="1:12" ht="14.5">
-      <c r="A144" s="61"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="73"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="31"/>
       <c r="D144" s="38"/>
       <c r="E144" s="39"/>
-      <c r="F144" s="73"/>
+      <c r="F144" s="31"/>
       <c r="G144" s="4"/>
       <c r="H144" s="11"/>
       <c r="I144" s="16"/>
@@ -4234,12 +4307,12 @@
       <c r="L144" s="28"/>
     </row>
     <row r="145" spans="1:12" ht="14.5">
-      <c r="A145" s="61"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="73"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="31"/>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
-      <c r="F145" s="73"/>
+      <c r="F145" s="31"/>
       <c r="G145" s="4"/>
       <c r="H145" s="11"/>
       <c r="I145" s="16"/>
@@ -4248,12 +4321,12 @@
       <c r="L145" s="28"/>
     </row>
     <row r="146" spans="1:12" ht="14.5">
-      <c r="A146" s="61"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="73"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="31"/>
       <c r="D146" s="38"/>
       <c r="E146" s="39"/>
-      <c r="F146" s="73"/>
+      <c r="F146" s="31"/>
       <c r="G146" s="4"/>
       <c r="H146" s="11"/>
       <c r="I146" s="16"/>
@@ -4262,12 +4335,12 @@
       <c r="L146" s="28"/>
     </row>
     <row r="147" spans="1:12" ht="14.5">
-      <c r="A147" s="61"/>
-      <c r="B147" s="43"/>
-      <c r="C147" s="73"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="38"/>
       <c r="E147" s="39"/>
-      <c r="F147" s="73"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="4"/>
       <c r="H147" s="11"/>
       <c r="I147" s="16"/>
@@ -4276,12 +4349,12 @@
       <c r="L147" s="28"/>
     </row>
     <row r="148" spans="1:12" ht="14.5">
-      <c r="A148" s="61"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="73"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="38"/>
       <c r="E148" s="39"/>
-      <c r="F148" s="73"/>
+      <c r="F148" s="31"/>
       <c r="G148" s="4"/>
       <c r="H148" s="11"/>
       <c r="I148" s="16"/>
@@ -4290,12 +4363,12 @@
       <c r="L148" s="28"/>
     </row>
     <row r="149" spans="1:12" ht="14.5">
-      <c r="A149" s="61"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="73"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="31"/>
       <c r="D149" s="38"/>
       <c r="E149" s="39"/>
-      <c r="F149" s="73"/>
+      <c r="F149" s="31"/>
       <c r="G149" s="4"/>
       <c r="H149" s="11"/>
       <c r="I149" s="16"/>
@@ -4304,12 +4377,12 @@
       <c r="L149" s="28"/>
     </row>
     <row r="150" spans="1:12" ht="15" thickBot="1">
-      <c r="A150" s="62"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="74"/>
+      <c r="A150" s="53"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="32"/>
       <c r="D150" s="40"/>
       <c r="E150" s="41"/>
-      <c r="F150" s="74"/>
+      <c r="F150" s="32"/>
       <c r="G150" s="5"/>
       <c r="H150" s="12"/>
       <c r="I150" s="17"/>
@@ -4318,16 +4391,16 @@
       <c r="L150" s="29"/>
     </row>
     <row r="151" spans="1:12" ht="14.5">
-      <c r="A151" s="63">
+      <c r="A151" s="58">
         <v>18</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B151" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C151" s="72"/>
+      <c r="C151" s="30"/>
       <c r="D151" s="36"/>
       <c r="E151" s="37"/>
-      <c r="F151" s="72"/>
+      <c r="F151" s="30"/>
       <c r="G151" s="9"/>
       <c r="H151" s="14"/>
       <c r="I151" s="19"/>
@@ -4336,12 +4409,12 @@
       <c r="L151" s="27"/>
     </row>
     <row r="152" spans="1:12" ht="14.5">
-      <c r="A152" s="61"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="73"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="31"/>
       <c r="D152" s="38"/>
       <c r="E152" s="39"/>
-      <c r="F152" s="73"/>
+      <c r="F152" s="31"/>
       <c r="G152" s="4"/>
       <c r="H152" s="11"/>
       <c r="I152" s="16"/>
@@ -4350,12 +4423,12 @@
       <c r="L152" s="28"/>
     </row>
     <row r="153" spans="1:12" ht="14.5">
-      <c r="A153" s="61"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="73"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="38"/>
       <c r="E153" s="39"/>
-      <c r="F153" s="73"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="4"/>
       <c r="H153" s="11"/>
       <c r="I153" s="16"/>
@@ -4364,12 +4437,12 @@
       <c r="L153" s="28"/>
     </row>
     <row r="154" spans="1:12" ht="14.5">
-      <c r="A154" s="61"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="73"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="38"/>
       <c r="E154" s="39"/>
-      <c r="F154" s="73"/>
+      <c r="F154" s="31"/>
       <c r="G154" s="4"/>
       <c r="H154" s="11"/>
       <c r="I154" s="16"/>
@@ -4378,12 +4451,12 @@
       <c r="L154" s="28"/>
     </row>
     <row r="155" spans="1:12" ht="15" thickBot="1">
-      <c r="A155" s="62"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="74"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="32"/>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
-      <c r="F155" s="74"/>
+      <c r="F155" s="32"/>
       <c r="G155" s="5"/>
       <c r="H155" s="12"/>
       <c r="I155" s="17"/>
@@ -4393,60 +4466,33 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="F121:F127"/>
-    <mergeCell ref="F128:F141"/>
-    <mergeCell ref="F142:F150"/>
-    <mergeCell ref="F151:F155"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="C101:C111"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="C121:C127"/>
-    <mergeCell ref="C128:C141"/>
-    <mergeCell ref="C142:C150"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="F101:F111"/>
-    <mergeCell ref="F112:F120"/>
-    <mergeCell ref="D112:E120"/>
-    <mergeCell ref="D121:E127"/>
-    <mergeCell ref="D128:E141"/>
-    <mergeCell ref="D142:E150"/>
-    <mergeCell ref="D151:E155"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="D81:E87"/>
-    <mergeCell ref="D88:E92"/>
-    <mergeCell ref="D93:E100"/>
-    <mergeCell ref="D101:E111"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="D47:E54"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D8:E14"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="D15:E28"/>
-    <mergeCell ref="F15:F28"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B128:B141"/>
-    <mergeCell ref="A128:A141"/>
-    <mergeCell ref="B142:B150"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="D74:E80"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:E61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="C62:C73"/>
+    <mergeCell ref="D62:E73"/>
+    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="A142:A150"/>
     <mergeCell ref="A151:A155"/>
@@ -4463,35 +4509,62 @@
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="B55:B61"/>
     <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B28"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B128:B141"/>
+    <mergeCell ref="A128:A141"/>
+    <mergeCell ref="B142:B150"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="D47:E54"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D8:E14"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="D15:E28"/>
+    <mergeCell ref="F15:F28"/>
+    <mergeCell ref="C29:C40"/>
     <mergeCell ref="D29:E40"/>
     <mergeCell ref="F29:F40"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="D74:E80"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:E61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="D62:E73"/>
-    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="D151:E155"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="D81:E87"/>
+    <mergeCell ref="D88:E92"/>
+    <mergeCell ref="D93:E100"/>
+    <mergeCell ref="D101:E111"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="F101:F111"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="F121:F127"/>
+    <mergeCell ref="F128:F141"/>
+    <mergeCell ref="F142:F150"/>
+    <mergeCell ref="F151:F155"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="C128:C141"/>
+    <mergeCell ref="C142:C150"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="D112:E120"/>
+    <mergeCell ref="D121:E127"/>
+    <mergeCell ref="D128:E141"/>
+    <mergeCell ref="D142:E150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/work/TMF/Gap-Assessment-2022-V1.0.xlsx
+++ b/work/TMF/Gap-Assessment-2022-V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62CF561-2C68-4F6B-823A-E356C067E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB52FD-33D0-4BA8-8C33-90CF330A6FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{3F448B84-10C2-4B81-9393-BDC2AD15A052}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{3F448B84-10C2-4B81-9393-BDC2AD15A052}"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="197">
   <si>
     <t>Control</t>
   </si>
@@ -514,6 +514,120 @@
   </si>
   <si>
     <t>Test Data Recovery</t>
+  </si>
+  <si>
+    <t>Hardening network devices and preventing attackers from exploiting vulnerable network services and access points.</t>
+  </si>
+  <si>
+    <t>Ensuring up-to-date architecture diagrams. Using firewall/router/switch configuration audit and BPA tools.</t>
+  </si>
+  <si>
+    <t>Ensure Network Infrastructure is Up-to-Date</t>
+  </si>
+  <si>
+    <t>Establish and Maintain a Secure Network Architecture</t>
+  </si>
+  <si>
+    <t>Securely Manage Network Infrastructure</t>
+  </si>
+  <si>
+    <t>Establish and Maintain Architecture Diagram(s)</t>
+  </si>
+  <si>
+    <t>Centralize Network Authentication, Authorization, and Auditing (AAA)</t>
+  </si>
+  <si>
+    <t>Use of Secure Network Management and Communication Protocols</t>
+  </si>
+  <si>
+    <t>Ensure Remote Devices Utilize a VPN and are Connecting to an Enterprise’s AAA Infrastructure</t>
+  </si>
+  <si>
+    <t>Establish and Maintain Dedicated Computing Resources for All Administrative Work</t>
+  </si>
+  <si>
+    <t>Enforcing correct security architecture. Only allowed authorized services and ports. Removing exceptions made for business needs after the need is fulfilled. Ensuring microsegmentation is in place. Having DPI enabled on all incoming/outgoing traffic. Enforcing Measure like port security to remove unauthorized ethernet access.</t>
+  </si>
+  <si>
+    <t>Maintain network monitoring and defense across enterprise network infrastructure and user base.</t>
+  </si>
+  <si>
+    <t>Centralize Security Event Alerting</t>
+  </si>
+  <si>
+    <t>Deploy a Host-Based Intrusion Detection Solution</t>
+  </si>
+  <si>
+    <t>Deploy a Network Intrusion Detection Solution</t>
+  </si>
+  <si>
+    <t>Perform Traffic Filtering Between Network Segments</t>
+  </si>
+  <si>
+    <t>Manage Access Control for Remote Assets</t>
+  </si>
+  <si>
+    <t>Collect Network Traffic Flow Logs</t>
+  </si>
+  <si>
+    <t>Deploy Port-Level Access Control</t>
+  </si>
+  <si>
+    <t>Perform Application Layer Filtering</t>
+  </si>
+  <si>
+    <t>Tune Security Event Alerting Thresholds</t>
+  </si>
+  <si>
+    <t>Understanding critical business functions and monitoring network and server architectures, data and data flows, end-user devices and accounts to gain Situational Awareness.</t>
+  </si>
+  <si>
+    <t>Firewalls, DPI, IDS, IPS &amp; SIEM Solutions</t>
+  </si>
+  <si>
+    <t>Deploy a Host-Based Intrusion Prevention Solution (EDR)</t>
+  </si>
+  <si>
+    <t>Deploy a Network Intrusion Prevention Solution (NIPS or equivalent CSP)</t>
+  </si>
+  <si>
+    <t>Esablishing and maintaining a security awareness program for staff to be security conscious to reduce cybersecurity risks.</t>
+  </si>
+  <si>
+    <t>Using social engineering to trick a user into clicking a link is easier than exploiting a network service.  Users sending mail to the wrong recipient, losing end-user device, using/reusing weak passwords can create easy ways for an attacker to gain unauthorized access.</t>
+  </si>
+  <si>
+    <t>Different training should be established for different users. Financial firms will require more compliance-related training on data handling and use. Social engineering training should demonstrate tactics for BEC such as attackers impersonating executes asking for wire transfers or a change in bank details for the next payment.</t>
+  </si>
+  <si>
+    <t>Establish and Maintain a Security Awareness Program</t>
+  </si>
+  <si>
+    <t>Train Workforce Members to Recognize Social Engineering Attacks</t>
+  </si>
+  <si>
+    <t>Train Workforce Members on Authentication Best Practices</t>
+  </si>
+  <si>
+    <t>Train Workforce on Data Handling Best Practices</t>
+  </si>
+  <si>
+    <t>Train Workforce Members on Causes of Unintentional Data Exposure</t>
+  </si>
+  <si>
+    <t>Train Workforce Members on Recognizing and Reporting Security Incidents</t>
+  </si>
+  <si>
+    <t>Train Workforce on How to Identify and Report if Their Enterprise Assets are Missing Security Updates</t>
+  </si>
+  <si>
+    <t>Train Workforce on the Dangers of Connecting to and Transmitting Enterprise Data Over Insecure Networks</t>
+  </si>
+  <si>
+    <t>Conduct Role-Specific Security Awareness and Skills Training</t>
+  </si>
+  <si>
+    <t>Managing the security lifecycle of in-house aplpications to prevent, detect &amp; remediate security weakneses before they can impact the enterprise.</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1117,6 +1231,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1126,136 +1372,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,64 +1691,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57218F47-C12B-4F21-B530-2CAE44319B46}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128:C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26"/>
+  <sheetFormatPr defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.08984375" customWidth="1"/>
-    <col min="6" max="6" width="60.81640625" customWidth="1"/>
-    <col min="7" max="7" width="71" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="7" max="7" width="98" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="61" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="68"/>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="64"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="10" t="s">
         <v>49</v>
       </c>
@@ -1641,24 +1758,24 @@
       <c r="J2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="43"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A3" s="52">
+      <c r="K2" s="45"/>
+      <c r="L2" s="66"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="73" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1674,13 +1791,13 @@
       </c>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="34"/>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="60"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1694,13 +1811,13 @@
       </c>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="34"/>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="60"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1714,13 +1831,13 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="34"/>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1734,13 +1851,13 @@
       </c>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="35"/>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1754,21 +1871,21 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A8" s="58">
+    <row r="8" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A8" s="62">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="70"/>
+      <c r="F8" s="32" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1784,13 +1901,13 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="34"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1804,13 +1921,13 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="34"/>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="60"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1824,13 +1941,13 @@
       </c>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="34"/>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="60"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1844,13 +1961,13 @@
       </c>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" ht="14.5">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="34"/>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="60"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1864,13 +1981,13 @@
       </c>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="14.5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="34"/>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="60"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1884,13 +2001,13 @@
       </c>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="35"/>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1904,21 +2021,21 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5">
-      <c r="A15" s="52">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="60">
         <v>3</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -1934,13 +2051,13 @@
       </c>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="1:12" ht="14.5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="34"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="7" t="s">
         <v>56</v>
       </c>
@@ -1954,13 +2071,13 @@
       </c>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" ht="14.5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="34"/>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="60"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="7" t="s">
         <v>57</v>
       </c>
@@ -1974,13 +2091,13 @@
       </c>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" ht="14.5">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="34"/>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="60"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1994,13 +2111,13 @@
       </c>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" ht="14.5">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="34"/>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="60"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="4" t="s">
         <v>59</v>
       </c>
@@ -2014,13 +2131,13 @@
       </c>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" ht="14.5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="34"/>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="60"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
@@ -2034,13 +2151,13 @@
       </c>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" ht="14.5">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="34"/>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
@@ -2054,13 +2171,13 @@
       </c>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" ht="14.5">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="34"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="4" t="s">
         <v>62</v>
       </c>
@@ -2074,13 +2191,13 @@
       </c>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" ht="14.5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="34"/>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="60"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="4" t="s">
         <v>63</v>
       </c>
@@ -2094,13 +2211,13 @@
       </c>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" ht="14.5">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="34"/>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="60"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="4" t="s">
         <v>64</v>
       </c>
@@ -2114,13 +2231,13 @@
       </c>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" ht="14.5">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="34"/>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="60"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
@@ -2134,13 +2251,13 @@
       </c>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" ht="14.5">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="34"/>
+    <row r="26" spans="1:12" ht="15">
+      <c r="A26" s="60"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="4" t="s">
         <v>66</v>
       </c>
@@ -2154,13 +2271,13 @@
       </c>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12" ht="14.5">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="34"/>
+    <row r="27" spans="1:12" ht="15">
+      <c r="A27" s="60"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="4" t="s">
         <v>67</v>
       </c>
@@ -2174,13 +2291,13 @@
       </c>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="35"/>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="5" t="s">
         <v>68</v>
       </c>
@@ -2194,21 +2311,21 @@
       </c>
       <c r="L28" s="29"/>
     </row>
-    <row r="29" spans="1:12" ht="14.5">
-      <c r="A29" s="52">
+    <row r="29" spans="1:12" ht="15">
+      <c r="A29" s="60">
         <v>4</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="33" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="32" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -2224,13 +2341,13 @@
       </c>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="1:12" ht="14.5">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="34"/>
+    <row r="30" spans="1:12" ht="15">
+      <c r="A30" s="60"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="7" t="s">
         <v>73</v>
       </c>
@@ -2244,13 +2361,13 @@
       </c>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="14.5">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="34"/>
+    <row r="31" spans="1:12" ht="15">
+      <c r="A31" s="60"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="7" t="s">
         <v>74</v>
       </c>
@@ -2264,13 +2381,13 @@
       </c>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="14.5">
-      <c r="A32" s="52"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="34"/>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="60"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="7" t="s">
         <v>75</v>
       </c>
@@ -2284,13 +2401,13 @@
       </c>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="34"/>
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="60"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="4" t="s">
         <v>76</v>
       </c>
@@ -2304,13 +2421,13 @@
       </c>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="14.5">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="34"/>
+    <row r="34" spans="1:12" ht="15">
+      <c r="A34" s="60"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="4" t="s">
         <v>77</v>
       </c>
@@ -2324,13 +2441,13 @@
       </c>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" ht="14.5">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="34"/>
+    <row r="35" spans="1:12" ht="15">
+      <c r="A35" s="60"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="4" t="s">
         <v>78</v>
       </c>
@@ -2344,13 +2461,13 @@
       </c>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" ht="14.5">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="34"/>
+    <row r="36" spans="1:12" ht="15">
+      <c r="A36" s="60"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="4" t="s">
         <v>79</v>
       </c>
@@ -2364,13 +2481,13 @@
       </c>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" ht="14.5">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="34"/>
+    <row r="37" spans="1:12" ht="15">
+      <c r="A37" s="60"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="4" t="s">
         <v>80</v>
       </c>
@@ -2384,13 +2501,13 @@
       </c>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12" ht="14.5">
-      <c r="A38" s="52"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="34"/>
+    <row r="38" spans="1:12" ht="15">
+      <c r="A38" s="60"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="4" t="s">
         <v>81</v>
       </c>
@@ -2404,13 +2521,13 @@
       </c>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12" ht="14.5">
-      <c r="A39" s="52"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="34"/>
+    <row r="39" spans="1:12" ht="15">
+      <c r="A39" s="60"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="4" t="s">
         <v>82</v>
       </c>
@@ -2424,13 +2541,13 @@
       </c>
       <c r="L39" s="28"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="35"/>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="5" t="s">
         <v>83</v>
       </c>
@@ -2444,21 +2561,21 @@
       </c>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" ht="14.5">
-      <c r="A41" s="51">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="59">
         <v>5</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="32" t="s">
         <v>94</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -2474,13 +2591,13 @@
       </c>
       <c r="L41" s="27"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="34"/>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A42" s="60"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="4" t="s">
         <v>85</v>
       </c>
@@ -2494,13 +2611,13 @@
       </c>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" ht="14.5">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="34"/>
+    <row r="43" spans="1:12" ht="15">
+      <c r="A43" s="60"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="4" t="s">
         <v>86</v>
       </c>
@@ -2514,13 +2631,13 @@
       </c>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="34"/>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="4" t="s">
         <v>87</v>
       </c>
@@ -2534,13 +2651,13 @@
       </c>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" ht="14.5">
-      <c r="A45" s="52"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="34"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="60"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="4" t="s">
         <v>88</v>
       </c>
@@ -2554,13 +2671,13 @@
       </c>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="35"/>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="5" t="s">
         <v>89</v>
       </c>
@@ -2574,21 +2691,21 @@
       </c>
       <c r="L46" s="29"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1">
-      <c r="A47" s="51">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A47" s="59">
         <v>6</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="33" t="s">
+      <c r="E47" s="36"/>
+      <c r="F47" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -2604,13 +2721,13 @@
       </c>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="34"/>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A48" s="60"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="4" t="s">
         <v>98</v>
       </c>
@@ -2624,13 +2741,13 @@
       </c>
       <c r="L48" s="28"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="34"/>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A49" s="60"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="4" t="s">
         <v>99</v>
       </c>
@@ -2644,13 +2761,13 @@
       </c>
       <c r="L49" s="28"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="34"/>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A50" s="60"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="4" t="s">
         <v>100</v>
       </c>
@@ -2664,13 +2781,13 @@
       </c>
       <c r="L50" s="28"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="34"/>
+    <row r="51" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A51" s="60"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="4" t="s">
         <v>101</v>
       </c>
@@ -2684,13 +2801,13 @@
       </c>
       <c r="L51" s="28"/>
     </row>
-    <row r="52" spans="1:12" ht="14.5">
-      <c r="A52" s="52"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="34"/>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" s="60"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="4" t="s">
         <v>102</v>
       </c>
@@ -2704,13 +2821,13 @@
       </c>
       <c r="L52" s="28"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="34"/>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A53" s="60"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="4" t="s">
         <v>103</v>
       </c>
@@ -2724,13 +2841,13 @@
       </c>
       <c r="L53" s="28"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="35"/>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A54" s="61"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="5" t="s">
         <v>104</v>
       </c>
@@ -2744,21 +2861,21 @@
       </c>
       <c r="L54" s="29"/>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="51">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A55" s="59">
         <v>7</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="33" t="s">
+      <c r="E55" s="36"/>
+      <c r="F55" s="32" t="s">
         <v>107</v>
       </c>
       <c r="G55" s="8" t="s">
@@ -2774,13 +2891,13 @@
       </c>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="1:12" ht="14.5">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="34"/>
+    <row r="56" spans="1:12" ht="15">
+      <c r="A56" s="60"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="4" t="s">
         <v>109</v>
       </c>
@@ -2794,13 +2911,13 @@
       </c>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="34"/>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A57" s="60"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="4" t="s">
         <v>110</v>
       </c>
@@ -2814,13 +2931,13 @@
       </c>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="34"/>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A58" s="60"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="4" t="s">
         <v>111</v>
       </c>
@@ -2834,13 +2951,13 @@
       </c>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" ht="14.5">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="34"/>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A59" s="60"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="4" t="s">
         <v>112</v>
       </c>
@@ -2854,13 +2971,13 @@
       </c>
       <c r="L59" s="28"/>
     </row>
-    <row r="60" spans="1:12" ht="14.5">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="34"/>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="60"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="4" t="s">
         <v>113</v>
       </c>
@@ -2874,13 +2991,13 @@
       </c>
       <c r="L60" s="28"/>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="35"/>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A61" s="61"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="34"/>
       <c r="G61" s="5" t="s">
         <v>114</v>
       </c>
@@ -2894,21 +3011,21 @@
       </c>
       <c r="L61" s="29"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1">
-      <c r="A62" s="51">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A62" s="59">
         <v>8</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="33" t="s">
+      <c r="E62" s="36"/>
+      <c r="F62" s="32" t="s">
         <v>129</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -2924,13 +3041,13 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="34"/>
+    <row r="63" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A63" s="60"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="4" t="s">
         <v>117</v>
       </c>
@@ -2944,13 +3061,13 @@
       </c>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="34"/>
+    <row r="64" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A64" s="60"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="4" t="s">
         <v>118</v>
       </c>
@@ -2964,13 +3081,13 @@
       </c>
       <c r="L64" s="28"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="34"/>
+    <row r="65" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A65" s="60"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="4" t="s">
         <v>119</v>
       </c>
@@ -2984,13 +3101,13 @@
       </c>
       <c r="L65" s="28"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="34"/>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A66" s="60"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="4" t="s">
         <v>120</v>
       </c>
@@ -3004,13 +3121,13 @@
       </c>
       <c r="L66" s="28"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="34"/>
+    <row r="67" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A67" s="60"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="4" t="s">
         <v>121</v>
       </c>
@@ -3024,13 +3141,13 @@
       </c>
       <c r="L67" s="28"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1">
-      <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="34"/>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A68" s="60"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="4" t="s">
         <v>122</v>
       </c>
@@ -3044,13 +3161,13 @@
       </c>
       <c r="L68" s="28"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="34"/>
+    <row r="69" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A69" s="60"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="4" t="s">
         <v>123</v>
       </c>
@@ -3064,13 +3181,13 @@
       </c>
       <c r="L69" s="28"/>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="34"/>
+    <row r="70" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A70" s="60"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="4" t="s">
         <v>124</v>
       </c>
@@ -3084,13 +3201,13 @@
       </c>
       <c r="L70" s="28"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="34"/>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A71" s="60"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="4" t="s">
         <v>125</v>
       </c>
@@ -3104,13 +3221,13 @@
       </c>
       <c r="L71" s="28"/>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="34"/>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A72" s="60"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="4" t="s">
         <v>126</v>
       </c>
@@ -3124,13 +3241,13 @@
       </c>
       <c r="L72" s="28"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="35"/>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A73" s="61"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="34"/>
       <c r="G73" s="5" t="s">
         <v>127</v>
       </c>
@@ -3144,21 +3261,21 @@
       </c>
       <c r="L73" s="29"/>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1">
-      <c r="A74" s="51">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A74" s="59">
         <v>9</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="33" t="s">
+      <c r="E74" s="36"/>
+      <c r="F74" s="32" t="s">
         <v>132</v>
       </c>
       <c r="G74" s="8" t="s">
@@ -3174,13 +3291,13 @@
       </c>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="34"/>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A75" s="60"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="33"/>
       <c r="G75" s="4" t="s">
         <v>134</v>
       </c>
@@ -3194,13 +3311,13 @@
       </c>
       <c r="L75" s="28"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="34"/>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A76" s="60"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="33"/>
       <c r="G76" s="4" t="s">
         <v>135</v>
       </c>
@@ -3214,13 +3331,13 @@
       </c>
       <c r="L76" s="28"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="34"/>
+    <row r="77" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A77" s="60"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="33"/>
       <c r="G77" s="4" t="s">
         <v>136</v>
       </c>
@@ -3234,13 +3351,13 @@
       </c>
       <c r="L77" s="28"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1">
-      <c r="A78" s="52"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="34"/>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A78" s="60"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="4" t="s">
         <v>137</v>
       </c>
@@ -3254,13 +3371,13 @@
       </c>
       <c r="L78" s="28"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="34"/>
+    <row r="79" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A79" s="60"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="4" t="s">
         <v>138</v>
       </c>
@@ -3274,13 +3391,13 @@
       </c>
       <c r="L79" s="28"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="35"/>
+    <row r="80" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A80" s="61"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="34"/>
       <c r="G80" s="5" t="s">
         <v>139</v>
       </c>
@@ -3294,21 +3411,21 @@
       </c>
       <c r="L80" s="29"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1">
-      <c r="A81" s="51">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A81" s="59">
         <v>10</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="37"/>
-      <c r="F81" s="33" t="s">
+      <c r="E81" s="36"/>
+      <c r="F81" s="32" t="s">
         <v>142</v>
       </c>
       <c r="G81" s="8" t="s">
@@ -3324,13 +3441,13 @@
       </c>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1">
-      <c r="A82" s="52"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="34"/>
+    <row r="82" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A82" s="60"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="4" t="s">
         <v>144</v>
       </c>
@@ -3344,13 +3461,13 @@
       </c>
       <c r="L82" s="28"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1">
-      <c r="A83" s="52"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="34"/>
+    <row r="83" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A83" s="60"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="4" t="s">
         <v>145</v>
       </c>
@@ -3364,13 +3481,13 @@
       </c>
       <c r="L83" s="28"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1">
-      <c r="A84" s="52"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="34"/>
+    <row r="84" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A84" s="60"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="4" t="s">
         <v>146</v>
       </c>
@@ -3384,13 +3501,13 @@
       </c>
       <c r="L84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1">
-      <c r="A85" s="52"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="34"/>
+    <row r="85" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A85" s="60"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="4" t="s">
         <v>149</v>
       </c>
@@ -3404,13 +3521,13 @@
       </c>
       <c r="L85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1">
-      <c r="A86" s="52"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="34"/>
+    <row r="86" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A86" s="60"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="4" t="s">
         <v>147</v>
       </c>
@@ -3424,13 +3541,13 @@
       </c>
       <c r="L86" s="28"/>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1">
-      <c r="A87" s="53"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="35"/>
+    <row r="87" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A87" s="61"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="34"/>
       <c r="G87" s="5" t="s">
         <v>148</v>
       </c>
@@ -3444,24 +3561,24 @@
       </c>
       <c r="L87" s="29"/>
     </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1">
-      <c r="A88" s="51">
+    <row r="88" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A88" s="59">
         <v>11</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E88" s="37"/>
-      <c r="F88" s="33" t="s">
+      <c r="E88" s="36"/>
+      <c r="F88" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G88" s="76" t="s">
+      <c r="G88" s="31" t="s">
         <v>154</v>
       </c>
       <c r="H88" s="13" t="s">
@@ -3469,18 +3586,18 @@
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="75" t="s">
+      <c r="K88" s="30" t="s">
         <v>153</v>
       </c>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="1:12" ht="14.5">
-      <c r="A89" s="52"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="34"/>
+    <row r="89" spans="1:12" ht="15">
+      <c r="A89" s="60"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="4" t="s">
         <v>155</v>
       </c>
@@ -3489,18 +3606,18 @@
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="75" t="s">
+      <c r="K89" s="30" t="s">
         <v>153</v>
       </c>
       <c r="L89" s="28"/>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1">
-      <c r="A90" s="52"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="34"/>
+    <row r="90" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A90" s="60"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="33"/>
       <c r="G90" s="4" t="s">
         <v>156</v>
       </c>
@@ -3514,13 +3631,13 @@
       </c>
       <c r="L90" s="28"/>
     </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1">
-      <c r="A91" s="52"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="34"/>
+    <row r="91" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A91" s="60"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="33"/>
       <c r="G91" s="4" t="s">
         <v>157</v>
       </c>
@@ -3529,18 +3646,18 @@
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="75" t="s">
+      <c r="K91" s="30" t="s">
         <v>153</v>
       </c>
       <c r="L91" s="28"/>
     </row>
-    <row r="92" spans="1:12" ht="15" thickBot="1">
-      <c r="A92" s="53"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="35"/>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A92" s="61"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="34"/>
       <c r="G92" s="5" t="s">
         <v>158</v>
       </c>
@@ -3549,426 +3666,612 @@
         <v>25</v>
       </c>
       <c r="J92" s="12"/>
-      <c r="K92" s="75" t="s">
+      <c r="K92" s="30" t="s">
         <v>153</v>
       </c>
       <c r="L92" s="29"/>
     </row>
-    <row r="93" spans="1:12" ht="14.5">
-      <c r="A93" s="51">
+    <row r="93" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A93" s="59">
         <v>12</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B93" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="13"/>
+      <c r="C93" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="18"/>
+      <c r="K93" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="1:12" ht="14.5">
-      <c r="A94" s="52"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="4"/>
+    <row r="94" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A94" s="60"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="H94" s="11"/>
-      <c r="I94" s="16"/>
+      <c r="I94" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J94" s="11"/>
-      <c r="K94" s="16"/>
+      <c r="K94" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L94" s="28"/>
     </row>
-    <row r="95" spans="1:12" ht="14.5">
-      <c r="A95" s="52"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="4"/>
+    <row r="95" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A95" s="60"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="H95" s="11"/>
-      <c r="I95" s="16"/>
+      <c r="I95" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J95" s="11"/>
-      <c r="K95" s="16"/>
+      <c r="K95" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L95" s="28"/>
     </row>
-    <row r="96" spans="1:12" ht="14.5">
-      <c r="A96" s="52"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="4"/>
+    <row r="96" spans="1:12" ht="15">
+      <c r="A96" s="60"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H96" s="11"/>
-      <c r="I96" s="16"/>
+      <c r="I96" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J96" s="11"/>
-      <c r="K96" s="16"/>
+      <c r="K96" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="L96" s="28"/>
     </row>
-    <row r="97" spans="1:12" ht="14.5">
-      <c r="A97" s="52"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="4"/>
+    <row r="97" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A97" s="60"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="H97" s="11"/>
-      <c r="I97" s="16"/>
+      <c r="I97" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J97" s="11"/>
-      <c r="K97" s="16"/>
+      <c r="K97" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L97" s="28"/>
     </row>
-    <row r="98" spans="1:12" ht="14.5">
-      <c r="A98" s="52"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="4"/>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A98" s="60"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H98" s="11"/>
-      <c r="I98" s="16"/>
+      <c r="I98" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J98" s="11"/>
-      <c r="K98" s="16"/>
+      <c r="K98" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L98" s="28"/>
     </row>
-    <row r="99" spans="1:12" ht="14.5">
-      <c r="A99" s="52"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="4"/>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A99" s="60"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H99" s="11"/>
-      <c r="I99" s="16"/>
+      <c r="I99" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J99" s="11"/>
-      <c r="K99" s="16"/>
+      <c r="K99" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L99" s="28"/>
     </row>
-    <row r="100" spans="1:12" ht="15" thickBot="1">
-      <c r="A100" s="53"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="5"/>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A100" s="61"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="H100" s="12"/>
       <c r="I100" s="17"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="17"/>
+      <c r="J100" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L100" s="29"/>
     </row>
-    <row r="101" spans="1:12" ht="14.5">
-      <c r="A101" s="51">
+    <row r="101" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A101" s="59">
         <v>13</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="8"/>
+      <c r="C101" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="H101" s="13"/>
-      <c r="I101" s="18"/>
+      <c r="I101" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="18"/>
+      <c r="K101" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" ht="14.5">
-      <c r="A102" s="52"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="4"/>
+    <row r="102" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A102" s="60"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="77" t="s">
+        <v>172</v>
+      </c>
       <c r="H102" s="11"/>
-      <c r="I102" s="16"/>
+      <c r="I102" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J102" s="11"/>
-      <c r="K102" s="16"/>
+      <c r="K102" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="L102" s="28"/>
     </row>
-    <row r="103" spans="1:12" ht="14.5">
-      <c r="A103" s="52"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="4"/>
+    <row r="103" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A103" s="60"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="H103" s="11"/>
-      <c r="I103" s="16"/>
+      <c r="I103" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J103" s="11"/>
-      <c r="K103" s="16"/>
+      <c r="K103" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="L103" s="28"/>
     </row>
-    <row r="104" spans="1:12" ht="14.5">
-      <c r="A104" s="52"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="4"/>
+    <row r="104" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A104" s="60"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="H104" s="11"/>
-      <c r="I104" s="16"/>
+      <c r="I104" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J104" s="11"/>
-      <c r="K104" s="16"/>
+      <c r="K104" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L104" s="28"/>
     </row>
-    <row r="105" spans="1:12" ht="14.5">
-      <c r="A105" s="52"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="4"/>
+    <row r="105" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A105" s="60"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="H105" s="11"/>
-      <c r="I105" s="16"/>
+      <c r="I105" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J105" s="11"/>
-      <c r="K105" s="16"/>
+      <c r="K105" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="14.5">
-      <c r="A106" s="52"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="4"/>
+    <row r="106" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A106" s="60"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="H106" s="11"/>
-      <c r="I106" s="16"/>
+      <c r="I106" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J106" s="11"/>
-      <c r="K106" s="16"/>
+      <c r="K106" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="L106" s="28"/>
     </row>
-    <row r="107" spans="1:12" ht="14.5">
-      <c r="A107" s="52"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="4"/>
+    <row r="107" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A107" s="60"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="H107" s="11"/>
       <c r="I107" s="16"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="16"/>
+      <c r="J107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L107" s="28"/>
     </row>
-    <row r="108" spans="1:12" ht="14.5">
-      <c r="A108" s="52"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="4"/>
+    <row r="108" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A108" s="60"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="H108" s="11"/>
       <c r="I108" s="16"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="16"/>
+      <c r="J108" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L108" s="28"/>
     </row>
-    <row r="109" spans="1:12" ht="14.5">
-      <c r="A109" s="52"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="4"/>
+    <row r="109" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A109" s="60"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="H109" s="11"/>
       <c r="I109" s="16"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="16"/>
+      <c r="J109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L109" s="28"/>
     </row>
-    <row r="110" spans="1:12" ht="14.5">
-      <c r="A110" s="52"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="4"/>
+    <row r="110" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A110" s="60"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H110" s="11"/>
       <c r="I110" s="16"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="16"/>
+      <c r="J110" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L110" s="28"/>
     </row>
-    <row r="111" spans="1:12" ht="15" thickBot="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="5"/>
+    <row r="111" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A111" s="61"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="H111" s="12"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="17"/>
+      <c r="J111" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="L111" s="29"/>
     </row>
-    <row r="112" spans="1:12" ht="14.5">
-      <c r="A112" s="51">
+    <row r="112" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A112" s="59">
         <v>14</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="13"/>
+      <c r="C112" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="I112" s="18"/>
       <c r="J112" s="13"/>
-      <c r="K112" s="18"/>
+      <c r="K112" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" ht="14.5">
-      <c r="A113" s="52"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="11"/>
+    <row r="113" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A113" s="60"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I113" s="16"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="16"/>
+      <c r="K113" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L113" s="28"/>
     </row>
-    <row r="114" spans="1:12" ht="14.5">
-      <c r="A114" s="52"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="11"/>
+    <row r="114" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A114" s="60"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I114" s="16"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="16"/>
+      <c r="K114" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L114" s="28"/>
     </row>
-    <row r="115" spans="1:12" ht="14.5">
-      <c r="A115" s="52"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="11"/>
+    <row r="115" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A115" s="60"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I115" s="16"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="16"/>
+      <c r="K115" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L115" s="28"/>
     </row>
-    <row r="116" spans="1:12" ht="14.5">
-      <c r="A116" s="52"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="11"/>
+    <row r="116" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A116" s="60"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I116" s="16"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="16"/>
+      <c r="K116" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L116" s="28"/>
     </row>
-    <row r="117" spans="1:12" ht="14.5">
-      <c r="A117" s="52"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="11"/>
+    <row r="117" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A117" s="60"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I117" s="16"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="16"/>
+      <c r="K117" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L117" s="28"/>
     </row>
-    <row r="118" spans="1:12" ht="14.5">
-      <c r="A118" s="52"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="11"/>
+    <row r="118" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A118" s="60"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I118" s="16"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="16"/>
+      <c r="K118" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L118" s="28"/>
     </row>
-    <row r="119" spans="1:12" ht="14.5">
-      <c r="A119" s="52"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="11"/>
+    <row r="119" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A119" s="60"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I119" s="16"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="16"/>
+      <c r="K119" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L119" s="28"/>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1">
-      <c r="A120" s="53"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="5"/>
+    <row r="120" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A120" s="61"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="H120" s="12"/>
-      <c r="I120" s="17"/>
+      <c r="I120" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="J120" s="12"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L120" s="29"/>
     </row>
-    <row r="121" spans="1:12" ht="14.5">
-      <c r="A121" s="51">
+    <row r="121" spans="1:12" ht="15">
+      <c r="A121" s="59">
         <v>15</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="30"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="74"/>
       <c r="G121" s="8"/>
       <c r="H121" s="13"/>
       <c r="I121" s="18"/>
@@ -3976,13 +4279,13 @@
       <c r="K121" s="18"/>
       <c r="L121" s="27"/>
     </row>
-    <row r="122" spans="1:12" ht="14.5">
-      <c r="A122" s="52"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="31"/>
+    <row r="122" spans="1:12" ht="15">
+      <c r="A122" s="60"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="75"/>
       <c r="G122" s="4"/>
       <c r="H122" s="11"/>
       <c r="I122" s="16"/>
@@ -3990,13 +4293,13 @@
       <c r="K122" s="16"/>
       <c r="L122" s="28"/>
     </row>
-    <row r="123" spans="1:12" ht="14.5">
-      <c r="A123" s="52"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="31"/>
+    <row r="123" spans="1:12" ht="15">
+      <c r="A123" s="60"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="75"/>
       <c r="G123" s="4"/>
       <c r="H123" s="11"/>
       <c r="I123" s="16"/>
@@ -4004,13 +4307,13 @@
       <c r="K123" s="16"/>
       <c r="L123" s="28"/>
     </row>
-    <row r="124" spans="1:12" ht="14.5">
-      <c r="A124" s="52"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="31"/>
+    <row r="124" spans="1:12" ht="15">
+      <c r="A124" s="60"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="75"/>
       <c r="G124" s="4"/>
       <c r="H124" s="11"/>
       <c r="I124" s="16"/>
@@ -4018,13 +4321,13 @@
       <c r="K124" s="16"/>
       <c r="L124" s="28"/>
     </row>
-    <row r="125" spans="1:12" ht="14.5">
-      <c r="A125" s="52"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="31"/>
+    <row r="125" spans="1:12" ht="15">
+      <c r="A125" s="60"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="75"/>
       <c r="G125" s="4"/>
       <c r="H125" s="11"/>
       <c r="I125" s="16"/>
@@ -4032,13 +4335,13 @@
       <c r="K125" s="16"/>
       <c r="L125" s="28"/>
     </row>
-    <row r="126" spans="1:12" ht="14.5">
-      <c r="A126" s="52"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="31"/>
+    <row r="126" spans="1:12" ht="15">
+      <c r="A126" s="60"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="75"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="75"/>
       <c r="G126" s="4"/>
       <c r="H126" s="11"/>
       <c r="I126" s="16"/>
@@ -4046,13 +4349,13 @@
       <c r="K126" s="16"/>
       <c r="L126" s="28"/>
     </row>
-    <row r="127" spans="1:12" ht="15" thickBot="1">
-      <c r="A127" s="53"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="32"/>
+    <row r="127" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A127" s="61"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="76"/>
       <c r="G127" s="5"/>
       <c r="H127" s="12"/>
       <c r="I127" s="17"/>
@@ -4060,17 +4363,19 @@
       <c r="K127" s="17"/>
       <c r="L127" s="29"/>
     </row>
-    <row r="128" spans="1:12" ht="14.5">
-      <c r="A128" s="51">
+    <row r="128" spans="1:12" ht="15">
+      <c r="A128" s="59">
         <v>16</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="30"/>
+      <c r="C128" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="74"/>
       <c r="G128" s="8"/>
       <c r="H128" s="13"/>
       <c r="I128" s="18"/>
@@ -4078,13 +4383,13 @@
       <c r="K128" s="18"/>
       <c r="L128" s="27"/>
     </row>
-    <row r="129" spans="1:12" ht="14.5">
-      <c r="A129" s="52"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="31"/>
+    <row r="129" spans="1:12" ht="15">
+      <c r="A129" s="60"/>
+      <c r="B129" s="42"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="75"/>
       <c r="G129" s="4"/>
       <c r="H129" s="11"/>
       <c r="I129" s="16"/>
@@ -4092,13 +4397,13 @@
       <c r="K129" s="16"/>
       <c r="L129" s="28"/>
     </row>
-    <row r="130" spans="1:12" ht="14.5">
-      <c r="A130" s="52"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="31"/>
+    <row r="130" spans="1:12" ht="15">
+      <c r="A130" s="60"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="75"/>
       <c r="G130" s="4"/>
       <c r="H130" s="11"/>
       <c r="I130" s="16"/>
@@ -4106,13 +4411,13 @@
       <c r="K130" s="16"/>
       <c r="L130" s="28"/>
     </row>
-    <row r="131" spans="1:12" ht="14.5">
-      <c r="A131" s="52"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="31"/>
+    <row r="131" spans="1:12" ht="15">
+      <c r="A131" s="60"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="75"/>
       <c r="G131" s="4"/>
       <c r="H131" s="11"/>
       <c r="I131" s="16"/>
@@ -4120,13 +4425,13 @@
       <c r="K131" s="16"/>
       <c r="L131" s="28"/>
     </row>
-    <row r="132" spans="1:12" ht="14.5">
-      <c r="A132" s="52"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="38"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="31"/>
+    <row r="132" spans="1:12" ht="15">
+      <c r="A132" s="60"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="75"/>
       <c r="G132" s="4"/>
       <c r="H132" s="11"/>
       <c r="I132" s="16"/>
@@ -4134,13 +4439,13 @@
       <c r="K132" s="16"/>
       <c r="L132" s="28"/>
     </row>
-    <row r="133" spans="1:12" ht="14.5">
-      <c r="A133" s="52"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="31"/>
+    <row r="133" spans="1:12" ht="15">
+      <c r="A133" s="60"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="75"/>
       <c r="G133" s="4"/>
       <c r="H133" s="11"/>
       <c r="I133" s="16"/>
@@ -4148,13 +4453,13 @@
       <c r="K133" s="16"/>
       <c r="L133" s="28"/>
     </row>
-    <row r="134" spans="1:12" ht="14.5">
-      <c r="A134" s="52"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="31"/>
+    <row r="134" spans="1:12" ht="15">
+      <c r="A134" s="60"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="75"/>
       <c r="G134" s="4"/>
       <c r="H134" s="11"/>
       <c r="I134" s="16"/>
@@ -4162,13 +4467,13 @@
       <c r="K134" s="16"/>
       <c r="L134" s="28"/>
     </row>
-    <row r="135" spans="1:12" ht="14.5">
-      <c r="A135" s="52"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="31"/>
+    <row r="135" spans="1:12" ht="15">
+      <c r="A135" s="60"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="75"/>
       <c r="G135" s="4"/>
       <c r="H135" s="11"/>
       <c r="I135" s="16"/>
@@ -4176,13 +4481,13 @@
       <c r="K135" s="16"/>
       <c r="L135" s="28"/>
     </row>
-    <row r="136" spans="1:12" ht="14.5">
-      <c r="A136" s="52"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="31"/>
+    <row r="136" spans="1:12" ht="15">
+      <c r="A136" s="60"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="75"/>
       <c r="G136" s="4"/>
       <c r="H136" s="11"/>
       <c r="I136" s="16"/>
@@ -4190,13 +4495,13 @@
       <c r="K136" s="16"/>
       <c r="L136" s="28"/>
     </row>
-    <row r="137" spans="1:12" ht="14.5">
-      <c r="A137" s="52"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="31"/>
+    <row r="137" spans="1:12" ht="15">
+      <c r="A137" s="60"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="75"/>
       <c r="G137" s="4"/>
       <c r="H137" s="11"/>
       <c r="I137" s="16"/>
@@ -4204,13 +4509,13 @@
       <c r="K137" s="16"/>
       <c r="L137" s="28"/>
     </row>
-    <row r="138" spans="1:12" ht="14.5">
-      <c r="A138" s="52"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="31"/>
+    <row r="138" spans="1:12" ht="15">
+      <c r="A138" s="60"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="75"/>
       <c r="G138" s="4"/>
       <c r="H138" s="11"/>
       <c r="I138" s="16"/>
@@ -4218,13 +4523,13 @@
       <c r="K138" s="16"/>
       <c r="L138" s="28"/>
     </row>
-    <row r="139" spans="1:12" ht="14.5">
-      <c r="A139" s="52"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="31"/>
+    <row r="139" spans="1:12" ht="15">
+      <c r="A139" s="60"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="75"/>
       <c r="G139" s="4"/>
       <c r="H139" s="11"/>
       <c r="I139" s="16"/>
@@ -4232,13 +4537,13 @@
       <c r="K139" s="16"/>
       <c r="L139" s="28"/>
     </row>
-    <row r="140" spans="1:12" ht="14.5">
-      <c r="A140" s="52"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="31"/>
+    <row r="140" spans="1:12" ht="15">
+      <c r="A140" s="60"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="75"/>
       <c r="G140" s="4"/>
       <c r="H140" s="11"/>
       <c r="I140" s="16"/>
@@ -4246,13 +4551,13 @@
       <c r="K140" s="16"/>
       <c r="L140" s="28"/>
     </row>
-    <row r="141" spans="1:12" ht="15" thickBot="1">
-      <c r="A141" s="53"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="32"/>
+    <row r="141" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A141" s="61"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="76"/>
       <c r="G141" s="5"/>
       <c r="H141" s="12"/>
       <c r="I141" s="17"/>
@@ -4260,17 +4565,17 @@
       <c r="K141" s="17"/>
       <c r="L141" s="29"/>
     </row>
-    <row r="142" spans="1:12" ht="14.5">
-      <c r="A142" s="51">
+    <row r="142" spans="1:12" ht="15">
+      <c r="A142" s="59">
         <v>17</v>
       </c>
-      <c r="B142" s="54" t="s">
+      <c r="B142" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="30"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="30"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="74"/>
       <c r="G142" s="8"/>
       <c r="H142" s="13"/>
       <c r="I142" s="18"/>
@@ -4278,13 +4583,13 @@
       <c r="K142" s="18"/>
       <c r="L142" s="27"/>
     </row>
-    <row r="143" spans="1:12" ht="14.5">
-      <c r="A143" s="52"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="31"/>
+    <row r="143" spans="1:12" ht="15">
+      <c r="A143" s="60"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="75"/>
       <c r="G143" s="4"/>
       <c r="H143" s="11"/>
       <c r="I143" s="16"/>
@@ -4292,13 +4597,13 @@
       <c r="K143" s="16"/>
       <c r="L143" s="28"/>
     </row>
-    <row r="144" spans="1:12" ht="14.5">
-      <c r="A144" s="52"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="38"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="31"/>
+    <row r="144" spans="1:12" ht="15">
+      <c r="A144" s="60"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="75"/>
       <c r="G144" s="4"/>
       <c r="H144" s="11"/>
       <c r="I144" s="16"/>
@@ -4306,13 +4611,13 @@
       <c r="K144" s="16"/>
       <c r="L144" s="28"/>
     </row>
-    <row r="145" spans="1:12" ht="14.5">
-      <c r="A145" s="52"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="38"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="31"/>
+    <row r="145" spans="1:12" ht="15">
+      <c r="A145" s="60"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="75"/>
       <c r="G145" s="4"/>
       <c r="H145" s="11"/>
       <c r="I145" s="16"/>
@@ -4320,13 +4625,13 @@
       <c r="K145" s="16"/>
       <c r="L145" s="28"/>
     </row>
-    <row r="146" spans="1:12" ht="14.5">
-      <c r="A146" s="52"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="31"/>
+    <row r="146" spans="1:12" ht="15">
+      <c r="A146" s="60"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="75"/>
       <c r="G146" s="4"/>
       <c r="H146" s="11"/>
       <c r="I146" s="16"/>
@@ -4334,13 +4639,13 @@
       <c r="K146" s="16"/>
       <c r="L146" s="28"/>
     </row>
-    <row r="147" spans="1:12" ht="14.5">
-      <c r="A147" s="52"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="38"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="31"/>
+    <row r="147" spans="1:12" ht="15">
+      <c r="A147" s="60"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="75"/>
       <c r="G147" s="4"/>
       <c r="H147" s="11"/>
       <c r="I147" s="16"/>
@@ -4348,13 +4653,13 @@
       <c r="K147" s="16"/>
       <c r="L147" s="28"/>
     </row>
-    <row r="148" spans="1:12" ht="14.5">
-      <c r="A148" s="52"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="31"/>
+    <row r="148" spans="1:12" ht="15">
+      <c r="A148" s="60"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="75"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="75"/>
       <c r="G148" s="4"/>
       <c r="H148" s="11"/>
       <c r="I148" s="16"/>
@@ -4362,13 +4667,13 @@
       <c r="K148" s="16"/>
       <c r="L148" s="28"/>
     </row>
-    <row r="149" spans="1:12" ht="14.5">
-      <c r="A149" s="52"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="31"/>
+    <row r="149" spans="1:12" ht="15">
+      <c r="A149" s="60"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="75"/>
       <c r="G149" s="4"/>
       <c r="H149" s="11"/>
       <c r="I149" s="16"/>
@@ -4376,13 +4681,13 @@
       <c r="K149" s="16"/>
       <c r="L149" s="28"/>
     </row>
-    <row r="150" spans="1:12" ht="15" thickBot="1">
-      <c r="A150" s="53"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="32"/>
+    <row r="150" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A150" s="61"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="76"/>
       <c r="G150" s="5"/>
       <c r="H150" s="12"/>
       <c r="I150" s="17"/>
@@ -4390,17 +4695,17 @@
       <c r="K150" s="17"/>
       <c r="L150" s="29"/>
     </row>
-    <row r="151" spans="1:12" ht="14.5">
-      <c r="A151" s="58">
+    <row r="151" spans="1:12" ht="15">
+      <c r="A151" s="62">
         <v>18</v>
       </c>
-      <c r="B151" s="57" t="s">
+      <c r="B151" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C151" s="30"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="30"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="74"/>
       <c r="G151" s="9"/>
       <c r="H151" s="14"/>
       <c r="I151" s="19"/>
@@ -4408,13 +4713,13 @@
       <c r="K151" s="19"/>
       <c r="L151" s="27"/>
     </row>
-    <row r="152" spans="1:12" ht="14.5">
-      <c r="A152" s="52"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="31"/>
+    <row r="152" spans="1:12" ht="15">
+      <c r="A152" s="60"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="75"/>
       <c r="G152" s="4"/>
       <c r="H152" s="11"/>
       <c r="I152" s="16"/>
@@ -4422,13 +4727,13 @@
       <c r="K152" s="16"/>
       <c r="L152" s="28"/>
     </row>
-    <row r="153" spans="1:12" ht="14.5">
-      <c r="A153" s="52"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="31"/>
+    <row r="153" spans="1:12" ht="15">
+      <c r="A153" s="60"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="75"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="75"/>
       <c r="G153" s="4"/>
       <c r="H153" s="11"/>
       <c r="I153" s="16"/>
@@ -4436,13 +4741,13 @@
       <c r="K153" s="16"/>
       <c r="L153" s="28"/>
     </row>
-    <row r="154" spans="1:12" ht="14.5">
-      <c r="A154" s="52"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="31"/>
+    <row r="154" spans="1:12" ht="15">
+      <c r="A154" s="60"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="75"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="75"/>
       <c r="G154" s="4"/>
       <c r="H154" s="11"/>
       <c r="I154" s="16"/>
@@ -4450,13 +4755,13 @@
       <c r="K154" s="16"/>
       <c r="L154" s="28"/>
     </row>
-    <row r="155" spans="1:12" ht="15" thickBot="1">
-      <c r="A155" s="53"/>
-      <c r="B155" s="56"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="40"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="32"/>
+    <row r="155" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A155" s="61"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="76"/>
       <c r="G155" s="5"/>
       <c r="H155" s="12"/>
       <c r="I155" s="17"/>
@@ -4466,17 +4771,78 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="D74:E80"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:E61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="D62:E73"/>
-    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="F121:F127"/>
+    <mergeCell ref="F128:F141"/>
+    <mergeCell ref="F142:F150"/>
+    <mergeCell ref="F151:F155"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="C128:C141"/>
+    <mergeCell ref="C142:C150"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="D112:E120"/>
+    <mergeCell ref="D121:E127"/>
+    <mergeCell ref="D128:E141"/>
+    <mergeCell ref="D142:E150"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="F101:F111"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="D151:E155"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="D81:E87"/>
+    <mergeCell ref="D88:E92"/>
+    <mergeCell ref="D93:E100"/>
+    <mergeCell ref="D101:E111"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="D47:E54"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D8:E14"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="D15:E28"/>
+    <mergeCell ref="F15:F28"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="D29:E40"/>
+    <mergeCell ref="F29:F40"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="B128:B141"/>
+    <mergeCell ref="A128:A141"/>
+    <mergeCell ref="B142:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="A142:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="B101:B111"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B62:B73"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B92"/>
@@ -4493,78 +4859,17 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="F41:F46"/>
     <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="A142:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="A112:A120"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="B128:B141"/>
-    <mergeCell ref="A128:A141"/>
-    <mergeCell ref="B142:B150"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="D47:E54"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D8:E14"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="D15:E28"/>
-    <mergeCell ref="F15:F28"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="D29:E40"/>
-    <mergeCell ref="F29:F40"/>
-    <mergeCell ref="D151:E155"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="D81:E87"/>
-    <mergeCell ref="D88:E92"/>
-    <mergeCell ref="D93:E100"/>
-    <mergeCell ref="D101:E111"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="F101:F111"/>
-    <mergeCell ref="F112:F120"/>
-    <mergeCell ref="F121:F127"/>
-    <mergeCell ref="F128:F141"/>
-    <mergeCell ref="F142:F150"/>
-    <mergeCell ref="F151:F155"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="C101:C111"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="C121:C127"/>
-    <mergeCell ref="C128:C141"/>
-    <mergeCell ref="C142:C150"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="D112:E120"/>
-    <mergeCell ref="D121:E127"/>
-    <mergeCell ref="D128:E141"/>
-    <mergeCell ref="D142:E150"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="D74:E80"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:E61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="C62:C73"/>
+    <mergeCell ref="D62:E73"/>
+    <mergeCell ref="F62:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
